--- a/Excel Sheet/Sign Up.xlsx
+++ b/Excel Sheet/Sign Up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thangapandiyan P\eclipse-workspace\Sample\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC68B74E-7394-4EAD-8639-48F0D73CC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A97F208-CDBB-4F7F-BA84-B272D3B834B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F5BF7566-F926-43D5-B78E-FAA4B7D80BC3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Last Name</t>
   </si>
@@ -60,48 +60,12 @@
     <t>Ragul</t>
   </si>
   <si>
-    <t>Karthi</t>
-  </si>
-  <si>
-    <t>Thangapandiyan</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>25.08.1999</t>
-  </si>
-  <si>
-    <t>20.10.1996</t>
-  </si>
-  <si>
-    <t>25.02.1997</t>
-  </si>
-  <si>
-    <t>13.08.1996</t>
-  </si>
-  <si>
-    <t>08.01.1997</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -111,64 +75,10 @@
     <t>Carrom</t>
   </si>
   <si>
-    <t>Cricket</t>
-  </si>
-  <si>
-    <t>FootBall</t>
-  </si>
-  <si>
-    <t>VollyBall</t>
-  </si>
-  <si>
     <t>aji@gmail.com</t>
   </si>
   <si>
-    <t>hari@gmail.com</t>
-  </si>
-  <si>
     <t>ragul@gmail.com</t>
-  </si>
-  <si>
-    <t>anand@gmail.com</t>
-  </si>
-  <si>
-    <t>karthi@gmail.com</t>
-  </si>
-  <si>
-    <t>pandiyan@gmail.com</t>
-  </si>
-  <si>
-    <t>Kabadi</t>
-  </si>
-  <si>
-    <t>Harshini</t>
-  </si>
-  <si>
-    <t>Meenu</t>
-  </si>
-  <si>
-    <t>Gayathri</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>19.10.2004</t>
-  </si>
-  <si>
-    <t>09.04.2001</t>
-  </si>
-  <si>
-    <t>12.07.2001</t>
-  </si>
-  <si>
-    <t>harshini@gmail.com</t>
-  </si>
-  <si>
-    <t>meenu@gmail.com</t>
-  </si>
-  <si>
-    <t>gayathri@gmail.com</t>
   </si>
   <si>
     <t>First Name</t>
@@ -577,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -598,7 +508,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -606,19 +516,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>35636</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>9600809646</v>
@@ -632,19 +542,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>36397</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>9600809636</v>
@@ -654,198 +564,37 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9876543210</v>
-      </c>
-      <c r="H4" s="4">
-        <v>43668</v>
-      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1">
-        <v>9087654321</v>
-      </c>
-      <c r="H5" s="4">
-        <v>43668</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1">
-        <v>9786543210</v>
-      </c>
-      <c r="H6" s="4">
-        <v>43668</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1">
-        <v>9687654321</v>
-      </c>
-      <c r="H7" s="4">
-        <v>43668</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="1">
-        <v>9087654431</v>
-      </c>
-      <c r="H8" s="4">
-        <v>43668</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9876540321</v>
-      </c>
-      <c r="H9" s="4">
-        <v>43668</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9875342156</v>
-      </c>
-      <c r="H10" s="4">
-        <v>43668</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{6BBC766F-F52E-4FDE-AC1B-0A81AE1EF6D8}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{1D0CBC94-C4D3-4F5C-9C3F-E87AF755FB60}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{224AB39D-5F7A-4080-8B19-5FE2E6A4BE20}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{0125C192-CBB1-4AE3-8BA8-7D013C077900}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{B03A41E7-9517-4365-8B9C-339E9AE25653}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{E34C5F77-6914-474E-AB23-C7A5D8279E1E}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{B6421478-6DEB-48A6-9FB1-B2EC7BD8E9C5}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{F382F559-337F-4F0D-BFD9-72FB020BE1CD}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{DD0EABB7-293D-496A-A415-6464DAFB728C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel Sheet/Sign Up.xlsx
+++ b/Excel Sheet/Sign Up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thangapandiyan P\eclipse-workspace\Sample\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A97F208-CDBB-4F7F-BA84-B272D3B834B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB20E71-C41C-4BD9-8267-1585F631578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F5BF7566-F926-43D5-B78E-FAA4B7D80BC3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Last Name</t>
   </si>
@@ -85,22 +85,104 @@
   </si>
   <si>
     <t>Date of Joining</t>
+  </si>
+  <si>
+    <t>25.08.1999</t>
+  </si>
+  <si>
+    <t>Karthi</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>20.10.1996</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>karthi@gmail.com</t>
+  </si>
+  <si>
+    <t>Thangapandiyan</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>25.02.1997</t>
+  </si>
+  <si>
+    <t>FootBall</t>
+  </si>
+  <si>
+    <t>pandiyan@gmail.com</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>13.08.1996</t>
+  </si>
+  <si>
+    <t>VollyBall</t>
+  </si>
+  <si>
+    <t>hari@gmail.com</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>08.01.1997</t>
+  </si>
+  <si>
+    <t>Kabadi</t>
+  </si>
+  <si>
+    <t>anand@gmail.com</t>
+  </si>
+  <si>
+    <t>Harshini</t>
+  </si>
+  <si>
+    <t>19.10.2004</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>harshini@gmail.com</t>
+  </si>
+  <si>
+    <t>Meenu</t>
+  </si>
+  <si>
+    <t>09.04.2001</t>
+  </si>
+  <si>
+    <t>meenu@gmail.com</t>
+  </si>
+  <si>
+    <t>Gayathri</t>
+  </si>
+  <si>
+    <t>12.07.2001</t>
+  </si>
+  <si>
+    <t>gayathri@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,6 +193,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,21 +232,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -466,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74336AC6-97CC-410F-9DB6-E2C20CA27F2E}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,25 +615,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>35636</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>9600809646</v>
       </c>
       <c r="H2" s="4">
@@ -538,25 +641,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
-        <v>36397</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>9600809636</v>
       </c>
       <c r="H3" s="4">
@@ -564,37 +667,208 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9876543210</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43668</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9087654321</v>
+      </c>
+      <c r="H5" s="4">
+        <v>43668</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9786543210</v>
+      </c>
+      <c r="H6" s="4">
+        <v>43668</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="3"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9687654321</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43668</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="3"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9087654431</v>
+      </c>
+      <c r="H8" s="4">
+        <v>43668</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F9" s="3"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9876540321</v>
+      </c>
+      <c r="H9" s="4">
+        <v>43668</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F10" s="3"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9875342156</v>
+      </c>
+      <c r="H10" s="4">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{6BBC766F-F52E-4FDE-AC1B-0A81AE1EF6D8}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{1D0CBC94-C4D3-4F5C-9C3F-E87AF755FB60}"/>
+    <hyperlink ref="F2" r:id="rId1" display="mailto:aji@gmail.com" xr:uid="{BE69130A-0E99-48A5-82B6-2221615D815E}"/>
+    <hyperlink ref="F3" r:id="rId2" display="mailto:ragul@gmail.com" xr:uid="{02847B05-5011-49FC-96A8-0130ED42746E}"/>
+    <hyperlink ref="F4" r:id="rId3" display="mailto:karthi@gmail.com" xr:uid="{30275902-5A23-4D32-AB25-FA60AC73E2AE}"/>
+    <hyperlink ref="F5" r:id="rId4" display="mailto:pandiyan@gmail.com" xr:uid="{AF039C43-48C6-4EAC-8F4E-B3DA6BF3A93F}"/>
+    <hyperlink ref="F6" r:id="rId5" display="mailto:hari@gmail.com" xr:uid="{B5594B95-4391-4854-BBD8-BEDCDA1A12D5}"/>
+    <hyperlink ref="F7" r:id="rId6" display="mailto:anand@gmail.com" xr:uid="{836E9FD6-B16E-499D-B27C-E06600538C99}"/>
+    <hyperlink ref="F8" r:id="rId7" display="mailto:harshini@gmail.com" xr:uid="{B0CD6A6A-A70A-463B-BDF2-82BE006CACB9}"/>
+    <hyperlink ref="F9" r:id="rId8" display="mailto:meenu@gmail.com" xr:uid="{CA210370-4A3F-42B9-92B7-E0FBB5267599}"/>
+    <hyperlink ref="F10" r:id="rId9" display="mailto:gayathri@gmail.com" xr:uid="{157AF84A-D691-4332-A38B-D872B047A1DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel Sheet/Sign Up.xlsx
+++ b/Excel Sheet/Sign Up.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thangapandiyan P\eclipse-workspace\Sample\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB20E71-C41C-4BD9-8267-1585F631578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F84661-758C-4338-95A2-BF1B393DF3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F5BF7566-F926-43D5-B78E-FAA4B7D80BC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{F5BF7566-F926-43D5-B78E-FAA4B7D80BC3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sign Up" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sign Up" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Last Name</t>
   </si>
@@ -57,13 +59,7 @@
     <t>Aji</t>
   </si>
   <si>
-    <t>Ragul</t>
-  </si>
-  <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>Male</t>
@@ -72,13 +68,7 @@
     <t>Chess</t>
   </si>
   <si>
-    <t>Carrom</t>
-  </si>
-  <si>
     <t>aji@gmail.com</t>
-  </si>
-  <si>
-    <t>ragul@gmail.com</t>
   </si>
   <si>
     <t>First Name</t>
@@ -87,101 +77,32 @@
     <t>Date of Joining</t>
   </si>
   <si>
-    <t>25.08.1999</t>
+    <t>Num</t>
   </si>
   <si>
-    <t>Karthi</t>
+    <t>09</t>
   </si>
   <si>
-    <t>K</t>
+    <t>A88</t>
   </si>
   <si>
-    <t>20.10.1996</t>
+    <t>a@23!</t>
   </si>
   <si>
-    <t>Cricket</t>
+    <t>a.09D#</t>
   </si>
   <si>
-    <t>karthi@gmail.com</t>
+    <t>EX</t>
   </si>
   <si>
-    <t>Thangapandiyan</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>25.02.1997</t>
-  </si>
-  <si>
-    <t>FootBall</t>
-  </si>
-  <si>
-    <t>pandiyan@gmail.com</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>13.08.1996</t>
-  </si>
-  <si>
-    <t>VollyBall</t>
-  </si>
-  <si>
-    <t>hari@gmail.com</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>08.01.1997</t>
-  </si>
-  <si>
-    <t>Kabadi</t>
-  </si>
-  <si>
-    <t>anand@gmail.com</t>
-  </si>
-  <si>
-    <t>Harshini</t>
-  </si>
-  <si>
-    <t>19.10.2004</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>harshini@gmail.com</t>
-  </si>
-  <si>
-    <t>Meenu</t>
-  </si>
-  <si>
-    <t>09.04.2001</t>
-  </si>
-  <si>
-    <t>meenu@gmail.com</t>
-  </si>
-  <si>
-    <t>Gayathri</t>
-  </si>
-  <si>
-    <t>12.07.2001</t>
-  </si>
-  <si>
-    <t>gayathri@gmail.com</t>
+    <t>22342353513535423577958</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +133,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +183,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -270,6 +208,1782 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sign Up'!$A$5:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Aji</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-07-1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Chess</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>aji@gmail.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9600809646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22-07-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sign Up'!$I$1:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Num</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a@23!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sign Up'!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB0C-4241-89C4-907F98F4EFC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="10802928"/>
+        <c:axId val="10789008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10802928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10789008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="10789008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10802928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sign Up'!$A$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Aji</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-07-1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Chess</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>aji@gmail.com</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9600809646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22-07-2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>a.09D#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sign Up'!$J$1:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>EX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22342353513535423577958</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sign Up'!$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D8D-427B-9C88-A00EDE0F88CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="14901280"/>
+        <c:axId val="14896480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="14901280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14896480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14896480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14901280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AAEE5766-16E0-4F62-8E28-4294195B9090}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FA02C6CD-34D1-4B9E-88D7-F00568506E24}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656595" cy="6281351"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7C78D6-A0F4-7AF2-0FFB-4D028237AB77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656595" cy="6281351"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC295E0-A0C7-B61C-EFFC-57B726261381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74336AC6-97CC-410F-9DB6-E2C20CA27F2E}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,12 +2299,14 @@
     <col min="6" max="6" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -611,27 +2327,33 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <v>35636</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3">
         <v>9600809646</v>
@@ -639,216 +2361,109 @@
       <c r="H2" s="4">
         <v>43668</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+      <c r="J3" s="1">
+        <v>12.45</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3">
-        <v>9600809636</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43668</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3">
-        <v>9876543210</v>
-      </c>
-      <c r="H4" s="4">
-        <v>43668</v>
-      </c>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3">
-        <v>9087654321</v>
-      </c>
-      <c r="H5" s="4">
-        <v>43668</v>
-      </c>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9786543210</v>
-      </c>
-      <c r="H6" s="4">
-        <v>43668</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3">
-        <v>9687654321</v>
-      </c>
-      <c r="H7" s="4">
-        <v>43668</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9087654431</v>
-      </c>
-      <c r="H8" s="4">
-        <v>43668</v>
-      </c>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9876540321</v>
-      </c>
-      <c r="H9" s="4">
-        <v>43668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9875342156</v>
-      </c>
-      <c r="H10" s="4">
-        <v>43668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -861,15 +2476,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="mailto:aji@gmail.com" xr:uid="{BE69130A-0E99-48A5-82B6-2221615D815E}"/>
-    <hyperlink ref="F3" r:id="rId2" display="mailto:ragul@gmail.com" xr:uid="{02847B05-5011-49FC-96A8-0130ED42746E}"/>
-    <hyperlink ref="F4" r:id="rId3" display="mailto:karthi@gmail.com" xr:uid="{30275902-5A23-4D32-AB25-FA60AC73E2AE}"/>
-    <hyperlink ref="F5" r:id="rId4" display="mailto:pandiyan@gmail.com" xr:uid="{AF039C43-48C6-4EAC-8F4E-B3DA6BF3A93F}"/>
-    <hyperlink ref="F6" r:id="rId5" display="mailto:hari@gmail.com" xr:uid="{B5594B95-4391-4854-BBD8-BEDCDA1A12D5}"/>
-    <hyperlink ref="F7" r:id="rId6" display="mailto:anand@gmail.com" xr:uid="{836E9FD6-B16E-499D-B27C-E06600538C99}"/>
-    <hyperlink ref="F8" r:id="rId7" display="mailto:harshini@gmail.com" xr:uid="{B0CD6A6A-A70A-463B-BDF2-82BE006CACB9}"/>
-    <hyperlink ref="F9" r:id="rId8" display="mailto:meenu@gmail.com" xr:uid="{CA210370-4A3F-42B9-92B7-E0FBB5267599}"/>
-    <hyperlink ref="F10" r:id="rId9" display="mailto:gayathri@gmail.com" xr:uid="{157AF84A-D691-4332-A38B-D872B047A1DC}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{44CB7A47-4CF9-49D7-A539-13E0B6199626}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Excel Sheet/Sign Up.xlsx
+++ b/Excel Sheet/Sign Up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thangapandiyan P\eclipse-workspace\Sample\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F84661-758C-4338-95A2-BF1B393DF3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF67687-1DB9-4494-AEF5-4978DB747117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{F5BF7566-F926-43D5-B78E-FAA4B7D80BC3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Last Name</t>
   </si>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>22342353513535423577958</t>
+  </si>
+  <si>
+    <t>Ragul</t>
+  </si>
+  <si>
+    <t>Karthi</t>
+  </si>
+  <si>
+    <t>Thangapandiyan</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Prakasam</t>
+  </si>
+  <si>
+    <t>Carrom</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>vollyball</t>
+  </si>
+  <si>
+    <t>basketball</t>
   </si>
 </sst>
 </file>
@@ -270,19 +297,19 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Aji</c:v>
+                  <c:v>Thangapandiyan</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>M</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25-07-1997</c:v>
+                  <c:v>04-07-1997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Male</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Chess</c:v>
+                  <c:v>vollyball</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>aji@gmail.com</c:v>
@@ -571,19 +598,19 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Aji</c:v>
+                  <c:v>Thangapandiyan</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>M</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25-07-1997</c:v>
+                  <c:v>04-07-1997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Male</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Chess</c:v>
+                  <c:v>vollyball</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>aji@gmail.com</c:v>
@@ -2286,7 +2313,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,14 +2396,30 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>35613</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9600809646</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43668</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2385,14 +2428,30 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>35616</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9600809646</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43668</v>
+      </c>
       <c r="I4" s="9" t="s">
         <v>16</v>
       </c>
@@ -2401,37 +2460,85 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>35615</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9600809646</v>
+      </c>
+      <c r="H5" s="4">
+        <v>43668</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>35633</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9600809646</v>
+      </c>
+      <c r="H6" s="4">
+        <v>43668</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>35620</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9600809646</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43668</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -2477,8 +2584,13 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="mailto:aji@gmail.com" xr:uid="{BE69130A-0E99-48A5-82B6-2221615D815E}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{44CB7A47-4CF9-49D7-A539-13E0B6199626}"/>
+    <hyperlink ref="F3" r:id="rId3" display="mailto:aji@gmail.com" xr:uid="{E739AA73-D97B-4BB1-B2B4-54BF049082D9}"/>
+    <hyperlink ref="F4" r:id="rId4" display="mailto:aji@gmail.com" xr:uid="{CC2883DA-8D08-4C7D-A619-34A7578AFC0D}"/>
+    <hyperlink ref="F5" r:id="rId5" display="mailto:aji@gmail.com" xr:uid="{C064CBC1-5BDE-411C-8459-52595807D6C6}"/>
+    <hyperlink ref="F6" r:id="rId6" display="mailto:aji@gmail.com" xr:uid="{4C848DF8-E4B1-434D-872C-EFD45C9A09A3}"/>
+    <hyperlink ref="F7" r:id="rId7" display="mailto:aji@gmail.com" xr:uid="{5BCA6009-6573-4488-BE5C-8F01DA6BA5A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>